--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_104.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_104.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,117 +488,132 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_170</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_150</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1273344651952462</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['D/7', 'D/6', 'A'], ['E:min', 'A', 'D']]</t>
-        </is>
+          <t>schubert-winterreise_54</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_123</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['G', 'G', 'D'], ['A:min', 'D', 'G']]</t>
+          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(12.39, 14.239254), (47.993, 51.613644)]</t>
+          <t>[['F:min', 'C:maj/F', 'F:min', 'C:maj/F', 'F:min', 'C:7/F', 'F:min', 'C:7/F', 'F:min', 'C:maj/F', 'F:min', 'C:maj/F', 'F:min', 'C:maj/F', 'F:min', 'C:maj/F', 'F:min', 'C:maj/F', 'F:min', 'C:maj/F', 'F:min', 'C:maj/F', 'F:min', 'C:maj/F', 'F:min', 'C:7/F', 'F:min', 'C:7/F', 'F:min']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(7.968347, 20.332973), (22.829118, 26.567531)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
+          <t>[('0:00:09.240000', '0:01:48.600000')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:00:05.840000', '0:01:44.720000')]</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_158</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_66</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1083333333333333</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:maj', 'D:min']]</t>
-        </is>
+          <t>jaah_1</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_74</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.16</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['C:min/G', 'G', 'C:min']]</t>
+          <t>[['Eb', 'Bb:7', 'Eb']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(10.26, 15.94)]</t>
+          <t>[['F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(12.28, 17.3)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
+          <t>[('0:00:04.830000', '0:00:10.940000')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:00:44', '0:01:01.060000')]</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.2461538461538462</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
-        </is>
+          <t>isophonics_2</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_113</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1625</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
+          <t>[['Bb/3', 'Eb:maj', 'Bb/3']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(74.7, 94.12)]</t>
+          <t>[['F:maj', 'A#:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(113.14, 114.88)]</t>
+          <t>[('0:00:38.041000', '0:00:42.375000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
+          <t>[('0:02:03.220000', '0:02:06.880000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
         <is>
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
@@ -602,495 +622,534 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_220</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_104</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.2767857142857143</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A', 'D']]</t>
-        </is>
+          <t>schubert-winterreise_117</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_44</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1916666666666667</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'C:maj']]</t>
+          <t>[['G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(18.710045, 20.463151)]</t>
+          <t>[['A#/F', 'F:7', 'A#']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(54.74, 64.2)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
+          <t>[('0:00:07.160000', '0:00:15.080000')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:04:31.220000', '0:04:35.780000')]</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_102</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>jaah_72</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1663636363636364</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'G:maj'], ['G:maj', 'G:maj', 'D:7/F#']]</t>
-        </is>
+          <t>jaah_3</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_36</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.05085470085470085</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'Eb', 'Eb'], ['Eb', 'Eb', 'Bb:7']]</t>
+          <t>[['Bb:7', 'Eb', 'Eb'], ['Bb:7', 'Eb', 'Bb:7']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(6.74, 12.16), (7.56, 13.46)]</t>
+          <t>[['D:7', 'G:maj', 'G:maj'], ['D:7', 'G:maj', 'D:7/C']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(24.29, 28.79), (14.3, 17.65)]</t>
+          <t>[('0:00:31.890000', '0:00:34.570000'), ('0:00:44.070000', '0:00:46.310000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>[('0:00:09.140000', '0:00:16.640000'), ('0:01:14.700000', '0:01:23.320000')]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_53</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_112</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.225</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['E:maj/G#', 'A:maj', 'E:maj']]</t>
-        </is>
+          <t>schubert-winterreise_26</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>isophonics_221</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.3555555555555555</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['A', 'D/5', 'A']]</t>
+          <t>[['A#:maj', 'F:maj', 'A#:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(55.68, 62.28)]</t>
+          <t>[['F/2', 'C', 'F', 'C/3']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(0.421247, 4.824512)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
+          <t>[('0:02:08.160000', '0:02:09.880000')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:00:57.758000', '0:01:05.204000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_131</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_50</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.3392857142857143</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
-        </is>
+          <t>schubert-winterreise_136</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_59</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.3452380952380952</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G']]</t>
+          <t>[['F:maj/C', 'C:7', 'F:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(61.32, 63.7)]</t>
+          <t>[['E:maj', 'B:7/A', 'E:maj/G#', 'E:maj/B']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(37.936167, 42.951678)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
+          <t>[('0:01:19.040000', '0:01:31.180000')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:03:39.560000', '0:03:50.900000')]</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_57</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_251</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1954887218045113</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['D', 'G', 'C', 'G'], ['G', 'C', 'G', 'C']]</t>
-        </is>
+          <t>schubert-winterreise_163</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_207</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.5333333333333333</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'G', 'D'], ['D', 'G', 'D', 'G']]</t>
+          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(19.518117, 24.661337), (135.68755, 139.228594)]</t>
+          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(57.401473, 66.677845), (7.525011, 14.746417)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
+          <t>[('0:01:47.900000', '0:01:49.300000')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:00:31.260000', '0:00:45.880000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_279</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_40</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2259615384615385</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['C:maj', 'F/5', 'C:maj']]</t>
-        </is>
+          <t>schubert-winterreise_148</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>isophonics_53</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.3809523809523809</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'G:maj', 'D:maj']]</t>
+          <t>[['G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(10.619, 16.742)]</t>
+          <t>[['A/3', 'E:7', 'A']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(60.04, 67.08)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
+          <t>[('0:00:08.080000', '0:00:19.060000')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:00:58.557000', '0:01:02.834000')]</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>jaah_55</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_173</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.08295454545454545</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['F', 'C', 'C']]</t>
-        </is>
+          <t>schubert-winterreise_189</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_126</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.4017857142857143</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['D', 'A', 'A']]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj'], ['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(37.61, 38.9)]</t>
+          <t>[['D:maj', 'A:7', 'D:maj'], ['D:maj/F#', 'G:maj', 'D:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(16.24229, 26.56356)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
+          <t>[('0:00:58.320000', '0:00:59.680000'), ('0:00:56.720000', '0:00:58.880000')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:00:00.580000', '0:00:09.400000'), ('0:00:58.080000', '0:01:05.660000')]</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_282</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_60</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1319148936170213</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['Eb', 'F', 'Bb']]</t>
-        </is>
+          <t>isophonics_174</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>isophonics_96</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.3611111111111111</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['C', 'D', 'G']]</t>
+          <t>[['D', 'G', 'D', 'A', 'D', 'D']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(44.917324, 48.272607)]</t>
+          <t>[['D:maj', 'G:maj', 'D:maj', 'A:maj', 'D:maj', 'D:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(0.98079, 5.421882)]</t>
+          <t>[('0:00:04.063000', '0:00:11.853000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:3Am0IbOxmvlSXro7N5iSfZ</t>
+          <t>[('0:00:38.543000', '0:01:03.135000')]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_242</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_193</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1261083743842364</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['A', 'B', 'E', 'B']]</t>
-        </is>
+          <t>schubert-winterreise_159</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_190</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['Ab', 'Bb', 'Eb', 'Bb']]</t>
+          <t>[['E:(3,b5,b7)/G#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(44.310045, 52.17)]</t>
+          <t>[['D#:(3,b5,b7)/G', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(7.043, 10.952)]</t>
+          <t>[('0:00:47.340000', '0:00:52.740000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:5SUlhldQJtOhUr2GzH5RI7</t>
+          <t>[('0:00:41', '0:00:45.320000')]</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>jaah_77</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>jaah_32</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.04886122881355932</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['G:7', 'C', 'C'], ['G:7', 'G:7', 'C']]</t>
-        </is>
+          <t>schubert-winterreise_134</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_83</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['D:7', 'G', 'G'], ['D:7', 'D:7', 'G']]</t>
+          <t>[['F:maj', 'D:7/F#', 'G:min', 'C:7/E', 'F:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(4.07, 7.47), (9.73, 12.62)]</t>
+          <t>[['G:maj', 'E:7/G#', 'A:min', 'D:7/F#', 'G:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(15.79, 20.07), (14.39, 18.62)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
+          <t>[('0:01:15.240000', '0:01:22.340000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:01:10.340000', '0:01:17.220000')]</t>
+        </is>
+      </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_46</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_54</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
+          <t>schubert-winterreise_177</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_185</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
         <v>1</v>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
-        </is>
-      </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
+          <t>[['A:min', 'A:7', 'D:maj/A', 'D:min/A', 'A:maj', 'A:min', 'E:maj', 'A:min', 'A:7', 'D:min/A', 'E:7/A', 'A:min', 'D:min/A', 'A:min', 'C:maj/G', 'D:min/F', 'C:maj/E', 'G:7', 'C:maj', 'A:min', 'A:7/G', 'D:maj/F#', 'G:(3,5,b7,b9)/F', 'C:maj/E', 'E:(3,5,b7,b9)/D', 'F:(3,5)', 'A:min/E', 'E:7', 'F:(3,5)', 'A:min/E', 'E:7', 'A:min', 'A:7', 'D:maj', 'D:min', 'A:maj', 'A:min/A', 'E:maj', 'A:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(10.36, 119.0)]</t>
+          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(9.24, 108.6)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
+          <t>[('0:00:00.620000', '0:01:47.380000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:00:00.820000', '0:01:47.920000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_275</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_288</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.2373737373737374</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['D', 'C', 'G', 'D']]</t>
-        </is>
+          <t>schubert-winterreise_137</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_175</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['B', 'A', 'E', 'B']]</t>
+          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(66.150625, 73.499741)]</t>
+          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(0.268067, 11.233219)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>isophonics_180</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_16</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.106312292358804</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['F', 'F:7', 'Bb'], ['G', 'C', 'F'], ['F', 'C', 'F']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'F:7', 'A#:maj'], ['G:maj/B', 'C:maj/E', 'F:maj'], ['F:maj', 'C:maj', 'F:maj']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(17.737518, 22.996837), (7.265318, 12.547858), (0.440395, 5.558652)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(19.06, 30.08), (208.74, 211.74), (1.64, 23.48)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+          <t>[('0:00:14.900000', '0:00:56.280000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:00:12.820000', '0:00:52.640000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
